--- a/ATV_Allowance/Templates/TemplateTTCS.xlsx
+++ b/ATV_Allowance/Templates/TemplateTTCS.xlsx
@@ -324,6 +324,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -333,50 +372,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -709,107 +709,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
     </row>
     <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
     </row>
     <row r="3" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27" t="s">
+      <c r="M3" s="33"/>
+      <c r="N3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="22" t="s">
+      <c r="O3" s="33"/>
+      <c r="P3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="35" t="s">
+      <c r="S3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="27" t="s">
+      <c r="T3" s="33" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
@@ -846,11 +846,11 @@
       <c r="O4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="27"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="33"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -876,147 +876,147 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="28">
+      <c r="C6" s="31"/>
+      <c r="D6" s="38">
         <v>0</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="29"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="39"/>
       <c r="T6" s="21"/>
     </row>
     <row r="7" spans="1:20" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
       <c r="S8" s="18"/>
       <c r="T8" s="19"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
       <c r="S9" s="15"/>
       <c r="T9" s="14"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
       <c r="S10" s="15"/>
       <c r="T10" s="14"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="26"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="31"/>
       <c r="S11" s="15"/>
       <c r="T11" s="14"/>
     </row>
@@ -1072,12 +1072,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D8:R8"/>
-    <mergeCell ref="D9:R9"/>
-    <mergeCell ref="D10:R10"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="D6:S6"/>
     <mergeCell ref="D7:T7"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B11:R11"/>
@@ -1094,11 +1093,12 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="D6:S6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D8:R8"/>
+    <mergeCell ref="D9:R9"/>
+    <mergeCell ref="D10:R10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,107 +1129,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
     </row>
     <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
     </row>
     <row r="3" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27" t="s">
+      <c r="M3" s="33"/>
+      <c r="N3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="22" t="s">
+      <c r="O3" s="33"/>
+      <c r="P3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="35" t="s">
+      <c r="S3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="27" t="s">
+      <c r="T3" s="33" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="20" t="s">
         <v>9</v>
       </c>
@@ -1266,11 +1266,11 @@
       <c r="O4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="27"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="33"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -1296,147 +1296,147 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="28">
+      <c r="C6" s="31"/>
+      <c r="D6" s="38">
         <v>0</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="29"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="39"/>
       <c r="T6" s="21"/>
     </row>
     <row r="7" spans="1:20" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
       <c r="S8" s="18"/>
       <c r="T8" s="19"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
       <c r="S9" s="15"/>
       <c r="T9" s="14"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
       <c r="S10" s="15"/>
       <c r="T10" s="14"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="26"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="31"/>
       <c r="S11" s="15"/>
       <c r="T11" s="14"/>
     </row>
@@ -1492,22 +1492,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:R9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:R10"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:S6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:T7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:R8"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
@@ -1519,6 +1503,22 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:S6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:T7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:R8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:R10"/>
+    <mergeCell ref="B11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplateTTCS.xlsx
+++ b/ATV_Allowance/Templates/TemplateTTCS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,27 +142,65 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -273,110 +311,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -692,391 +748,380 @@
   </sheetPr>
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="16" width="4.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" customWidth="1"/>
-    <col min="18" max="18" width="6.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="12" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="12" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="12" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="28" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:20" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-    </row>
-    <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+    </row>
+    <row r="2" spans="1:20" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-    </row>
-    <row r="3" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+    </row>
+    <row r="3" spans="1:20" s="13" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33" t="s">
+      <c r="I3" s="42"/>
+      <c r="J3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33" t="s">
+      <c r="K3" s="42"/>
+      <c r="L3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33" t="s">
+      <c r="M3" s="42"/>
+      <c r="N3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="35" t="s">
+      <c r="O3" s="42"/>
+      <c r="P3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="34" t="s">
+      <c r="S3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="T3" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="6" t="s">
+    <row r="4" spans="1:20" s="13" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="33"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="29" t="s">
+      <c r="P4" s="30"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="34"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="23"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="38">
+      <c r="C6" s="33"/>
+      <c r="D6" s="35">
         <v>0</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="21"/>
-    </row>
-    <row r="7" spans="1:20" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="28" t="s">
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:20" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="22" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="19"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="23" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="14"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="23" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="8"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="14"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="29" t="s">
+      <c r="C10" s="45"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="8"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="14"/>
-    </row>
-    <row r="12" spans="1:20" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T12" s="13" t="s">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="8"/>
+    </row>
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="27"/>
+      <c r="T12" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="S13"/>
-      <c r="T13" s="5" t="s">
+    <row r="13" spans="1:20" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T13" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:20" s="20" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D14"/>
-      <c r="E14" t="s">
+      <c r="E14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14" t="s">
+      <c r="M14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="S14"/>
-      <c r="T14" t="s">
+      <c r="T14" s="21" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="D6:S6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D8:R8"/>
+    <mergeCell ref="D9:R9"/>
+    <mergeCell ref="D10:R10"/>
     <mergeCell ref="D7:T7"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B11:R11"/>
@@ -1093,12 +1138,11 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D8:R8"/>
-    <mergeCell ref="D9:R9"/>
-    <mergeCell ref="D10:R10"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="D6:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1112,386 +1156,385 @@
   </sheetPr>
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="16" width="4.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" customWidth="1"/>
-    <col min="18" max="18" width="6.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="12" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="12" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="12" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="28" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:20" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-    </row>
-    <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+    </row>
+    <row r="2" spans="1:20" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-    </row>
-    <row r="3" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+    </row>
+    <row r="3" spans="1:20" s="13" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33" t="s">
+      <c r="I3" s="42"/>
+      <c r="J3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33" t="s">
+      <c r="K3" s="42"/>
+      <c r="L3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33" t="s">
+      <c r="M3" s="42"/>
+      <c r="N3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="35" t="s">
+      <c r="O3" s="42"/>
+      <c r="P3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="34" t="s">
+      <c r="S3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="T3" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="20" t="s">
+    <row r="4" spans="1:20" s="13" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="33"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="20"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="29" t="s">
+      <c r="P4" s="30"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="34"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="38">
+      <c r="C6" s="33"/>
+      <c r="D6" s="35">
         <v>0</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="21"/>
-    </row>
-    <row r="7" spans="1:20" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="28" t="s">
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:20" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="22" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="19"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="23" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="14"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="23" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="8"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="14"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="29" t="s">
+      <c r="C10" s="45"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="8"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="14"/>
-    </row>
-    <row r="12" spans="1:20" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T12" s="13" t="s">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="8"/>
+    </row>
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="27"/>
+      <c r="T12" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="S13"/>
-      <c r="T13" s="5" t="s">
+    <row r="13" spans="1:20" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T13" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:20" s="20" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D14"/>
-      <c r="E14" t="s">
+      <c r="E14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14" t="s">
+      <c r="M14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="S14"/>
-      <c r="T14" t="s">
+      <c r="T14" s="21" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:R10"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:S6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:T7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:R8"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
@@ -1508,17 +1551,6 @@
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:S6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:T7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:R8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:R9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:R10"/>
-    <mergeCell ref="B11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplateTTCS.xlsx
+++ b/ATV_Allowance/Templates/TemplateTTCS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -377,6 +377,48 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -386,53 +428,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -748,8 +748,8 @@
   </sheetPr>
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -778,107 +778,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
     </row>
     <row r="2" spans="1:20" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
     </row>
     <row r="3" spans="1:20" s="13" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42" t="s">
+      <c r="I3" s="40"/>
+      <c r="J3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42" t="s">
+      <c r="K3" s="40"/>
+      <c r="L3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42" t="s">
+      <c r="M3" s="40"/>
+      <c r="N3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="29" t="s">
+      <c r="O3" s="40"/>
+      <c r="P3" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="Q3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="R3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="43" t="s">
+      <c r="S3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="34" t="s">
+      <c r="T3" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="13" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="22" t="s">
         <v>9</v>
       </c>
@@ -915,11 +915,11 @@
       <c r="O4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="34"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="41"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -945,147 +945,147 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="35">
+      <c r="C6" s="38"/>
+      <c r="D6" s="46">
         <v>0</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="36"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="47"/>
       <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:20" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
       <c r="S8" s="25"/>
       <c r="T8" s="11"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
       <c r="S9" s="26"/>
       <c r="T9" s="8"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
       <c r="S10" s="26"/>
       <c r="T10" s="8"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="33"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="38"/>
       <c r="S11" s="26"/>
       <c r="T11" s="8"/>
     </row>
@@ -1110,18 +1110,17 @@
       <c r="M14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="T14" s="21" t="s">
+      <c r="S14" s="21" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D8:R8"/>
-    <mergeCell ref="D9:R9"/>
-    <mergeCell ref="D10:R10"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="D6:S6"/>
     <mergeCell ref="D7:T7"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B11:R11"/>
@@ -1138,11 +1137,12 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="D6:S6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D8:R8"/>
+    <mergeCell ref="D9:R9"/>
+    <mergeCell ref="D10:R10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1156,8 +1156,8 @@
   </sheetPr>
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1186,107 +1186,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
     </row>
     <row r="2" spans="1:20" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
     </row>
     <row r="3" spans="1:20" s="13" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42" t="s">
+      <c r="I3" s="40"/>
+      <c r="J3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42" t="s">
+      <c r="K3" s="40"/>
+      <c r="L3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42" t="s">
+      <c r="M3" s="40"/>
+      <c r="N3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="29" t="s">
+      <c r="O3" s="40"/>
+      <c r="P3" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="Q3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="R3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="43" t="s">
+      <c r="S3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="34" t="s">
+      <c r="T3" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="13" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="15" t="s">
         <v>9</v>
       </c>
@@ -1323,11 +1323,11 @@
       <c r="O4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="34"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="41"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -1353,147 +1353,147 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="35">
+      <c r="C6" s="38"/>
+      <c r="D6" s="46">
         <v>0</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="36"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="47"/>
       <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:20" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
       <c r="S8" s="25"/>
       <c r="T8" s="11"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
       <c r="S9" s="26"/>
       <c r="T9" s="8"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
       <c r="S10" s="26"/>
       <c r="T10" s="8"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="33"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="38"/>
       <c r="S11" s="26"/>
       <c r="T11" s="8"/>
     </row>
@@ -1518,23 +1518,12 @@
       <c r="M14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="T14" s="21" t="s">
+      <c r="S14" s="21" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:R9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:R10"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:S6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:T7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:R8"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
@@ -1551,6 +1540,17 @@
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:S6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:T7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:R8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:R10"/>
+    <mergeCell ref="B11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplateTTCS.xlsx
+++ b/ATV_Allowance/Templates/TemplateTTCS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -311,15 +311,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -329,15 +326,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -365,29 +359,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,41 +390,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -748,8 +749,8 @@
   </sheetPr>
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -757,370 +758,371 @@
     <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="12" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="12" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" style="8" customWidth="1"/>
     <col min="17" max="17" width="8.5703125" style="2" customWidth="1"/>
     <col min="18" max="18" width="7.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="28" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="21" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:20" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-    </row>
-    <row r="2" spans="1:20" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+    </row>
+    <row r="2" spans="1:20" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-    </row>
-    <row r="3" spans="1:20" s="13" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+    </row>
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="31"/>
+      <c r="J3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40" t="s">
+      <c r="K3" s="31"/>
+      <c r="L3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40" t="s">
+      <c r="M3" s="31"/>
+      <c r="N3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="43" t="s">
+      <c r="O3" s="31"/>
+      <c r="P3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="42" t="s">
+      <c r="S3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="T3" s="26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="13" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="22" t="s">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="41"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="23"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="36" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="26"/>
+    </row>
+    <row r="5" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="22"/>
+    </row>
+    <row r="6" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="46">
+      <c r="C6" s="33"/>
+      <c r="D6" s="34">
         <v>0</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="8"/>
-    </row>
-    <row r="7" spans="1:20" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="35" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="36"/>
+    </row>
+    <row r="7" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="29" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+    </row>
+    <row r="8" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="30" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="40"/>
+    </row>
+    <row r="9" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="30" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="36"/>
+    </row>
+    <row r="10" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="8"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="36" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="36"/>
+    </row>
+    <row r="11" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="8"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="36"/>
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S12" s="27"/>
-      <c r="T12" s="17" t="s">
+      <c r="S12" s="20"/>
+      <c r="T12" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T13" s="18" t="s">
+    <row r="13" spans="1:20" s="15" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T13" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="20" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+    <row r="14" spans="1:20" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="M14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S14" s="21" t="s">
+      <c r="S14" s="17" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="D6:S6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D8:R8"/>
+    <mergeCell ref="D9:R9"/>
+    <mergeCell ref="D10:R10"/>
     <mergeCell ref="D7:T7"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B11:R11"/>
@@ -1137,12 +1139,11 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D8:R8"/>
-    <mergeCell ref="D9:R9"/>
-    <mergeCell ref="D10:R10"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="D6:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1156,8 +1157,8 @@
   </sheetPr>
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A11" sqref="A5:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1165,365 +1166,376 @@
     <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="12" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="12" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" style="8" customWidth="1"/>
     <col min="17" max="17" width="8.5703125" style="2" customWidth="1"/>
     <col min="18" max="18" width="7.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="28" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="21" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:20" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-    </row>
-    <row r="2" spans="1:20" s="16" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+    </row>
+    <row r="2" spans="1:20" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-    </row>
-    <row r="3" spans="1:20" s="13" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+    </row>
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="31"/>
+      <c r="J3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40" t="s">
+      <c r="K3" s="31"/>
+      <c r="L3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40" t="s">
+      <c r="M3" s="31"/>
+      <c r="N3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="43" t="s">
+      <c r="O3" s="31"/>
+      <c r="P3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="42" t="s">
+      <c r="S3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="T3" s="26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="13" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="15" t="s">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="41"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="36" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="26"/>
+    </row>
+    <row r="5" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="22"/>
+    </row>
+    <row r="6" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="46">
+      <c r="C6" s="33"/>
+      <c r="D6" s="34">
         <v>0</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="8"/>
-    </row>
-    <row r="7" spans="1:20" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="35" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="36"/>
+    </row>
+    <row r="7" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="29" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+    </row>
+    <row r="8" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="30" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="40"/>
+    </row>
+    <row r="9" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="30" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="36"/>
+    </row>
+    <row r="10" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="8"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="36" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="36"/>
+    </row>
+    <row r="11" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="8"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="36"/>
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S12" s="27"/>
-      <c r="T12" s="17" t="s">
+      <c r="S12" s="20"/>
+      <c r="T12" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T13" s="18" t="s">
+    <row r="13" spans="1:20" s="15" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T13" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="20" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+    <row r="14" spans="1:20" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="M14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S14" s="21" t="s">
+      <c r="S14" s="17" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:R10"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:S6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:T7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:R8"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
@@ -1540,17 +1552,6 @@
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:S6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:T7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:R8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:R9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:R10"/>
-    <mergeCell ref="B11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplateTTCS.xlsx
+++ b/ATV_Allowance/Templates/TemplateTTCS.xlsx
@@ -369,6 +369,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -378,16 +390,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -399,40 +423,16 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -750,7 +750,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD11"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -759,127 +759,127 @@
     <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="4.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="8" customWidth="1"/>
     <col min="6" max="6" width="4.28515625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="8" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="8" customWidth="1"/>
     <col min="10" max="10" width="4.28515625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="8" customWidth="1"/>
     <col min="12" max="12" width="4.28515625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="8" customWidth="1"/>
     <col min="14" max="14" width="4.28515625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="8" customWidth="1"/>
     <col min="16" max="16" width="6.28515625" style="8" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="2" customWidth="1"/>
     <col min="19" max="19" width="16.7109375" style="21" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31" t="s">
+      <c r="M3" s="39"/>
+      <c r="N3" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="31"/>
-      <c r="P3" s="23" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="R3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
@@ -916,11 +916,11 @@
       <c r="O4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="26"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="32"/>
     </row>
     <row r="5" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -946,149 +946,149 @@
     </row>
     <row r="6" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34">
+      <c r="C6" s="31"/>
+      <c r="D6" s="33">
         <v>0</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="36"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="23"/>
     </row>
     <row r="7" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
     </row>
     <row r="8" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="25"/>
     </row>
     <row r="9" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="41" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="36"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="23"/>
     </row>
     <row r="10" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="36"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="23"/>
     </row>
     <row r="11" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="23"/>
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S12" s="20"/>
@@ -1187,107 +1187,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31" t="s">
+      <c r="M3" s="39"/>
+      <c r="N3" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="31"/>
-      <c r="P3" s="23" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="R3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
@@ -1324,11 +1324,11 @@
       <c r="O4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="26"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="32"/>
     </row>
     <row r="5" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -1354,149 +1354,149 @@
     </row>
     <row r="6" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34">
+      <c r="C6" s="31"/>
+      <c r="D6" s="33">
         <v>0</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="36"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="23"/>
     </row>
     <row r="7" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
     </row>
     <row r="8" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="25"/>
     </row>
     <row r="9" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="41" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="36"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="23"/>
     </row>
     <row r="10" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="36"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="23"/>
     </row>
     <row r="11" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="23"/>
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S12" s="20"/>

--- a/ATV_Allowance/Templates/TemplateTTCS.xlsx
+++ b/ATV_Allowance/Templates/TemplateTTCS.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -311,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -356,9 +356,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -381,6 +378,51 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -390,50 +432,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -744,421 +747,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="21" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-    </row>
-    <row r="2" spans="1:20" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-    </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="T3" s="32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="32"/>
-    </row>
-    <row r="5" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="22"/>
-    </row>
-    <row r="6" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="33">
-        <v>0</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="23"/>
-    </row>
-    <row r="7" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-    </row>
-    <row r="8" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="25"/>
-    </row>
-    <row r="9" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="23"/>
-    </row>
-    <row r="10" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="23"/>
-    </row>
-    <row r="11" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="23"/>
-    </row>
-    <row r="12" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S12" s="20"/>
-      <c r="T12" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="15" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T13" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D8:R8"/>
-    <mergeCell ref="D9:R9"/>
-    <mergeCell ref="D10:R10"/>
-    <mergeCell ref="D7:T7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="D6:S6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:T14"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A11" sqref="A5:XFD11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1181,156 +776,156 @@
     <col min="16" max="16" width="6.28515625" style="8" customWidth="1"/>
     <col min="17" max="17" width="8.5703125" style="2" customWidth="1"/>
     <col min="18" max="18" width="7.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="21" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="20" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
     </row>
     <row r="3" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39" t="s">
+      <c r="K3" s="38"/>
+      <c r="L3" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39" t="s">
+      <c r="M3" s="38"/>
+      <c r="N3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="27" t="s">
+      <c r="O3" s="38"/>
+      <c r="P3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="39" t="s">
         <v>6</v>
       </c>
       <c r="S3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="T3" s="39" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="11" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
       <c r="S4" s="40"/>
-      <c r="T4" s="32"/>
-    </row>
-    <row r="5" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T4" s="39"/>
+    </row>
+    <row r="5" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1349,167 +944,167 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="22"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="27"/>
     </row>
     <row r="6" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="33">
+      <c r="C6" s="36"/>
+      <c r="D6" s="44">
         <v>0</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="23"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="22"/>
     </row>
     <row r="7" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
     </row>
     <row r="8" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="25"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="24"/>
     </row>
     <row r="9" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="23"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="22"/>
     </row>
     <row r="10" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="23"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="22"/>
     </row>
     <row r="11" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="23"/>
-    </row>
-    <row r="12" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S12" s="20"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="22"/>
+    </row>
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="19"/>
       <c r="T12" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="15" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" s="15" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T13" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="16" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>13</v>
       </c>
@@ -1525,17 +1120,414 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="D6:S6"/>
+    <mergeCell ref="D7:T7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D8:R8"/>
     <mergeCell ref="D9:R9"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:R10"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:S6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:T7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:R8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="20" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+    </row>
+    <row r="2" spans="1:20" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+    </row>
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="38"/>
+      <c r="P3" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="39"/>
+    </row>
+    <row r="5" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="21"/>
+    </row>
+    <row r="6" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="44">
+        <v>0</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="22"/>
+    </row>
+    <row r="7" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+    </row>
+    <row r="8" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="24"/>
+    </row>
+    <row r="9" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="22"/>
+    </row>
+    <row r="10" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="22"/>
+    </row>
+    <row r="11" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="22"/>
+    </row>
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="19"/>
+      <c r="T12" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="15" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T13" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="16" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
@@ -1552,6 +1544,17 @@
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:S6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:T7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:R8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:R10"/>
+    <mergeCell ref="B11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplateTTCS.xlsx
+++ b/ATV_Allowance/Templates/TemplateTTCS.xlsx
@@ -753,14 +753,14 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:R8"/>
+      <selection activeCell="A5" sqref="A5:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="4.28515625" style="8" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="4.28515625" style="8" customWidth="1"/>
@@ -776,8 +776,8 @@
     <col min="16" max="16" width="6.28515625" style="8" customWidth="1"/>
     <col min="17" max="17" width="8.5703125" style="2" customWidth="1"/>
     <col min="18" max="18" width="7.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="20" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="21" style="20" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -925,7 +925,7 @@
       <c r="S4" s="40"/>
       <c r="T4" s="39"/>
     </row>
-    <row r="5" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -947,7 +947,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="27"/>
     </row>
-    <row r="6" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="34" t="s">
         <v>11</v>
@@ -973,7 +973,7 @@
       <c r="S6" s="45"/>
       <c r="T6" s="22"/>
     </row>
-    <row r="7" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="34" t="s">
         <v>25</v>
@@ -997,7 +997,7 @@
       <c r="S7" s="33"/>
       <c r="T7" s="33"/>
     </row>
-    <row r="8" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="28" t="s">
         <v>26</v>
@@ -1021,7 +1021,7 @@
       <c r="S8" s="23"/>
       <c r="T8" s="24"/>
     </row>
-    <row r="9" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="29" t="s">
         <v>27</v>
@@ -1045,7 +1045,7 @@
       <c r="S9" s="25"/>
       <c r="T9" s="22"/>
     </row>
-    <row r="10" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="29" t="s">
         <v>28</v>
@@ -1069,7 +1069,7 @@
       <c r="S10" s="25"/>
       <c r="T10" s="22"/>
     </row>
-    <row r="11" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="34" t="s">
         <v>29</v>
@@ -1093,18 +1093,18 @@
       <c r="S11" s="25"/>
       <c r="T11" s="22"/>
     </row>
-    <row r="12" spans="1:20" s="1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S12" s="19"/>
       <c r="T12" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="15" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" s="15" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T13" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="16" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>13</v>
       </c>
@@ -1161,14 +1161,14 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A5" sqref="A5:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="4.28515625" style="8" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="4.28515625" style="8" customWidth="1"/>
@@ -1184,8 +1184,8 @@
     <col min="16" max="16" width="6.28515625" style="8" customWidth="1"/>
     <col min="17" max="17" width="8.5703125" style="2" customWidth="1"/>
     <col min="18" max="18" width="7.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="20" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="21" style="20" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1333,7 +1333,7 @@
       <c r="S4" s="40"/>
       <c r="T4" s="39"/>
     </row>
-    <row r="5" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1355,7 +1355,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="21"/>
     </row>
-    <row r="6" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="34" t="s">
         <v>11</v>
@@ -1381,7 +1381,7 @@
       <c r="S6" s="45"/>
       <c r="T6" s="22"/>
     </row>
-    <row r="7" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="34" t="s">
         <v>25</v>
@@ -1405,7 +1405,7 @@
       <c r="S7" s="33"/>
       <c r="T7" s="33"/>
     </row>
-    <row r="8" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="28" t="s">
         <v>26</v>
@@ -1429,7 +1429,7 @@
       <c r="S8" s="23"/>
       <c r="T8" s="24"/>
     </row>
-    <row r="9" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="29" t="s">
         <v>27</v>
@@ -1453,7 +1453,7 @@
       <c r="S9" s="25"/>
       <c r="T9" s="22"/>
     </row>
-    <row r="10" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="29" t="s">
         <v>28</v>
@@ -1477,7 +1477,7 @@
       <c r="S10" s="25"/>
       <c r="T10" s="22"/>
     </row>
-    <row r="11" spans="1:20" s="7" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="34" t="s">
         <v>29</v>
@@ -1501,18 +1501,18 @@
       <c r="S11" s="25"/>
       <c r="T11" s="22"/>
     </row>
-    <row r="12" spans="1:20" s="1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S12" s="19"/>
       <c r="T12" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="15" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" s="15" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T13" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="16" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>13</v>
       </c>

--- a/ATV_Allowance/Templates/TemplateTTCS.xlsx
+++ b/ATV_Allowance/Templates/TemplateTTCS.xlsx
@@ -311,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -437,6 +437,12 @@
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1160,8 +1166,8 @@
   </sheetPr>
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1411,21 +1417,21 @@
         <v>26</v>
       </c>
       <c r="C8" s="28"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
       <c r="S8" s="23"/>
       <c r="T8" s="24"/>
     </row>
@@ -1435,21 +1441,21 @@
         <v>27</v>
       </c>
       <c r="C9" s="29"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
       <c r="S9" s="25"/>
       <c r="T9" s="22"/>
     </row>
@@ -1459,21 +1465,21 @@
         <v>28</v>
       </c>
       <c r="C10" s="29"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
       <c r="S10" s="25"/>
       <c r="T10" s="22"/>
     </row>
